--- a/Report/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/Report/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,294 @@
         <v>8915.040000000001</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7020.347826086957</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8653.95652173913</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>8365.25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>8133.840909090909</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>7534.847826086957</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>9077.978260869566</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9002.577777777778</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8624.799999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8309.717391304348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>9220.152173913044</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>10060.80434782609</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9065.826086956522</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>9167.934782608696</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>10026.13043478261</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9024.652173913044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Report/mean_scores_road4_HR_R_2012_2019.xlsx
+++ b/Report/mean_scores_road4_HR_R_2012_2019.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,294 +1031,6 @@
         <v>8915.040000000001</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>7020.347826086957</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>8653.95652173913</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>8365.25</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>8133.840909090909</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>7534.847826086957</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>9077.978260869566</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9002.577777777778</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>8624.799999999999</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>8309.717391304348</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>9220.152173913044</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>10060.80434782609</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>9065.826086956522</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>8472</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>9167.934782608696</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>10026.13043478261</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>9024.652173913044</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
